--- a/Noise_Colorfit_Battery_Data.xlsx
+++ b/Noise_Colorfit_Battery_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWARNAJIT ROY\Desktop\Projects\BatteryPrediction\Battery_Life_Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517E2CAF-7E04-442B-BD3C-8D6BE0D96D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Device</t>
   </si>
@@ -78,19 +82,22 @@
   </si>
   <si>
     <t>ideal</t>
+  </si>
+  <si>
+    <t>Battery_Life</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,346 +113,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -470,251 +147,20 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -722,62 +168,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1062,25 +470,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="21.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
     <col min="13" max="13" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" spans="1:13">
+    <row r="1" spans="1:15" ht="72">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,8 +528,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="72" spans="1:13">
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="72">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1161,8 +575,11 @@
       <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="72" spans="1:13">
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="72">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1185,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="H3" s="2">
-        <v>30.316</v>
+        <v>30.315999999999999</v>
       </c>
       <c r="I3" s="2">
         <v>400</v>
       </c>
       <c r="J3" s="2">
-        <v>0.583</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1202,8 +619,11 @@
       <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="72" spans="1:13">
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="72">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1243,8 +663,11 @@
       <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" ht="72" spans="1:13">
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="72">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1284,8 +707,11 @@
       <c r="M5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" ht="72" spans="1:13">
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="72">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1325,8 +751,11 @@
       <c r="M6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" ht="72" spans="1:13">
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="72">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1349,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="H7" s="2">
-        <v>30.316</v>
+        <v>30.315999999999999</v>
       </c>
       <c r="I7" s="2">
         <v>400</v>
       </c>
       <c r="J7" s="2">
-        <v>0.583</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1366,8 +795,11 @@
       <c r="M7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="72" spans="1:13">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="72">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1407,8 +839,11 @@
       <c r="M8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" ht="72" spans="1:13">
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="72">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +883,11 @@
       <c r="M9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" ht="72" spans="1:13">
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="72">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1489,8 +927,11 @@
       <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" ht="72" spans="1:13">
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="72">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1530,8 +971,11 @@
       <c r="M11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" ht="72" spans="1:13">
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="72">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1560,7 +1004,7 @@
         <v>400</v>
       </c>
       <c r="J12" s="2">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -1571,8 +1015,11 @@
       <c r="M12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" ht="72" spans="1:13">
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="72">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1612,9 +1059,11 @@
       <c r="M13" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>